--- a/uploads/Libro1.xlsx
+++ b/uploads/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB00F0FA-69A6-4187-AE9B-1ED2AC80FE57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A235194D-E594-4D2D-9A53-086BEC16234D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8235A587-1F55-4D8F-8FF6-38C3E84EB8A9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>5to piso</t>
   </si>
@@ -41,7 +41,16 @@
     <t>Sala de Profesores</t>
   </si>
   <si>
-    <t>…</t>
+    <t>asasd</t>
+  </si>
+  <si>
+    <t>3:00PM</t>
+  </si>
+  <si>
+    <t>8:00AM</t>
+  </si>
+  <si>
+    <t>4:00PM</t>
   </si>
 </sst>
 </file>
@@ -175,22 +184,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,7 +520,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,8 +541,8 @@
       <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="2">
-        <v>0.625</v>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
@@ -541,37 +553,40 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>39587452</v>
+        <v>39857650</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
-        <v>0.33333333333333331</v>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>40363860</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
+      <c r="B12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/uploads/Libro1.xlsx
+++ b/uploads/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A235194D-E594-4D2D-9A53-086BEC16234D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F42ADB1-75F5-467E-B2EE-FF9D36B050BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8235A587-1F55-4D8F-8FF6-38C3E84EB8A9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>5to piso</t>
   </si>
@@ -44,13 +44,16 @@
     <t>asasd</t>
   </si>
   <si>
-    <t>3:00PM</t>
-  </si>
-  <si>
     <t>8:00AM</t>
   </si>
   <si>
     <t>4:00PM</t>
+  </si>
+  <si>
+    <t>5:00PM</t>
+  </si>
+  <si>
+    <t>asddddd</t>
   </si>
 </sst>
 </file>
@@ -520,7 +523,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
@@ -559,7 +562,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1</v>
@@ -576,10 +579,27 @@
         <v>3</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>123456789</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
